--- a/Packet/PacketData/InstanceArea.xlsx
+++ b/Packet/PacketData/InstanceArea.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Discard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uuid</t>
   </si>
   <si>
     <t xml:space="preserve">u8</t>
@@ -265,7 +262,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -329,7 +326,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -337,10 +334,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Packet/PacketData/InstanceArea.xlsx
+++ b/Packet/PacketData/InstanceArea.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="インスタンスマップチケット発行" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="インスタンスマップチケット処理" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="インスタンスマップチケット破棄" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -75,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketInstanceAreaTicketDiscard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstanceAreaTicketDiscard</t>
   </si>
 </sst>
 </file>
@@ -261,7 +268,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -349,4 +356,57 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/InstanceArea.xlsx
+++ b/Packet/PacketData/InstanceArea.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="インスタンスマップチケット発行" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="インスタンスマップチケット処理" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="インスタンスマップチケット破棄" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="インスタンスマップ脱出ポイント生成" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -82,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">InstanceAreaTicketDiscard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PacketSpawnInstanceAreaExitPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpawnInstanceAreaExitPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarpDataId</t>
   </si>
 </sst>
 </file>
@@ -365,7 +375,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -409,4 +419,68 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Packet/PacketData/InstanceArea.xlsx
+++ b/Packet/PacketData/InstanceArea.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">SpawnInstanceAreaExitPoint</t>
   </si>
   <si>
-    <t xml:space="preserve">WarpDataId</t>
+    <t xml:space="preserve">WarpPointId</t>
   </si>
 </sst>
 </file>

--- a/Packet/PacketData/InstanceArea.xlsx
+++ b/Packet/PacketData/InstanceArea.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="インスタンスマップチケット発行" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -52,9 +52,15 @@
     <t xml:space="preserve">AreaId</t>
   </si>
   <si>
+    <t xml:space="preserve">エリアＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TicketId</t>
   </si>
   <si>
+    <t xml:space="preserve">チケットＩＤ</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketInstanceAreaTicketProcess</t>
   </si>
   <si>
@@ -70,15 +76,24 @@
     <t xml:space="preserve">Enter</t>
   </si>
   <si>
+    <t xml:space="preserve">入る</t>
+  </si>
+  <si>
     <t xml:space="preserve">Discard</t>
   </si>
   <si>
+    <t xml:space="preserve">破棄</t>
+  </si>
+  <si>
     <t xml:space="preserve">u8</t>
   </si>
   <si>
     <t xml:space="preserve">Process</t>
   </si>
   <si>
+    <t xml:space="preserve">処理内容</t>
+  </si>
+  <si>
     <t xml:space="preserve">PacketInstanceAreaTicketDiscard</t>
   </si>
   <si>
@@ -92,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">WarpPointId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワープポイントＩＤ</t>
   </si>
 </sst>
 </file>
@@ -201,10 +219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,6 +266,9 @@
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -257,7 +278,10 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -276,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -294,7 +318,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -302,7 +326,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,24 +339,30 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,7 +373,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,10 +384,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +427,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -426,10 +462,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -444,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,7 +507,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
